--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,38 @@
   </si>
   <si>
     <t>08:30--10:10 &amp; 16:00--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月14日23:24:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月15日22:39:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web的搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00--01:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSALS项目架构的搭建，web的完善，成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30--15:00 &amp; 17:00--21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1430,6 +1462,34 @@
         <v>137</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,22 @@
   </si>
   <si>
     <t>12:30--15:00 &amp; 17:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月16日10:23:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢朋举DaoTest通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00--01:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
@@ -1490,6 +1506,20 @@
         <v>145</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +618,30 @@
   </si>
   <si>
     <t>23:00--01:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔梦婷Dao单表建立成功，TEST单表通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30--19:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢朋举Service层通过，缺少TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00--20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李博文DaoTest AND ServiceTest均通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1520,6 +1544,30 @@
         <v>149</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,14 @@
   </si>
   <si>
     <t>李博文DaoTest AND ServiceTest均通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service层ManagerTestCase的建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:00--00:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1568,6 +1576,14 @@
         <v>154</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,15 +641,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Service层ManagerTestCase的建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:00--00:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月17日10:04:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李博文DaoTest AND ServiceTest均通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Service层ManagerTestCase的建立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:00--00:30</t>
+    <t>刘广部，胡颖慧，崔梦婷DaoTest AND ServiceTest均通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00--10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,9 +709,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -976,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1587,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -1578,10 +1595,24 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" t="s">
         <v>156</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,6 +666,30 @@
   </si>
   <si>
     <t>09:00--10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月18日14:10:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡颖慧xxManagerTestCase通过，但Test块中内容不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30--19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service层xxManagerTestCase的重新理解与建立，完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00--14:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,6 +1639,28 @@
         <v>161</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,14 @@
   </si>
   <si>
     <t>11:00--14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:10--14:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxManagerTestCase总查通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1661,6 +1669,14 @@
         <v>167</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,30 @@
   </si>
   <si>
     <t>xxManagerTestCase总查通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月19日16:23:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:10--10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30--18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总查 通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1677,6 +1701,28 @@
         <v>168</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,6 +722,26 @@
   </si>
   <si>
     <t>项目总查 通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月20日23:24:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neo4j学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00--14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1723,6 +1743,28 @@
         <v>174</v>
       </c>
     </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,18 @@
   </si>
   <si>
     <t>13:00--14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月21日23:07:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--17:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1765,6 +1777,20 @@
         <v>180</v>
       </c>
     </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,6 +754,30 @@
   </si>
   <si>
     <t>15:00--17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月22日20:42:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入了解Ajax Json Restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目包名规范化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00--20:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1791,6 +1815,28 @@
         <v>183</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,22 @@
   </si>
   <si>
     <t>18:00--20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月23日23:09:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入Restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00--21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1837,6 +1853,20 @@
         <v>189</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="198">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,22 @@
   </si>
   <si>
     <t>18:00--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月25日12:56:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包名规范总查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30--13:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1867,6 +1883,20 @@
         <v>193</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,14 @@
   </si>
   <si>
     <t>11:30--13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体线路已通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00--19:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,6 +1905,14 @@
         <v>197</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="204">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +818,22 @@
   </si>
   <si>
     <t>16:00--19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月26日20:48:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--18:00 &amp; 20:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层的简单应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1913,6 +1929,20 @@
         <v>199</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,6 +834,30 @@
   </si>
   <si>
     <t>web层的简单应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月27日23:43:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总体计划书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00--16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例会：小组成员再次明确分工及其任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,6 +1967,28 @@
         <v>202</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +858,30 @@
   </si>
   <si>
     <t>例会：小组成员再次明确分工及其任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月28日23:54:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax的学习（未完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00--14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00--01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《网购与物流仓储管理系统-项目总体计划说明书1.0》的编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1989,6 +2013,28 @@
         <v>208</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="224">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -882,6 +882,38 @@
   </si>
   <si>
     <t>《网购与物流仓储管理系统-项目总体计划说明书1.0》的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月29日23:49:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习HTML5,css,JS 浅入Ajax的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将json数据利用Ajax技术展示出来（学生信息表 成功）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2035,6 +2067,36 @@
         <v>214</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="225">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -914,6 +914,10 @@
   </si>
   <si>
     <t>将json数据利用Ajax技术展示出来（学生信息表 成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:30--00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2097,6 +2101,14 @@
         <v>220</v>
       </c>
     </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="231">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,6 +918,30 @@
   </si>
   <si>
     <t>23:30--00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月30日21:08:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSALS-client初建 项目清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax请求Delete （失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00--19:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,6 +2133,28 @@
         <v>224</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="237">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +942,30 @@
   </si>
   <si>
     <t>19:00--19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月31日21:24:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax请求Delete （成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四周小组例会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:50--16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00--18:30 &amp; 19:30--21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,12 +2171,34 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>229</v>
       </c>
       <c r="D81" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="241">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +966,22 @@
   </si>
   <si>
     <t>17:00--18:30 &amp; 19:30--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月1日22:30:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决Sno不显示问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00--11:10 &amp; 12:00--13:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2201,6 +2217,20 @@
         <v>236</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="251">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -982,6 +982,46 @@
   </si>
   <si>
     <t>10:00--11:10 &amp; 12:00--13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月2日23:47:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax请求Add（成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00--15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax请求Update（失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax请求Add（出现bug）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改bug（成功Add，Update明日再战！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30--23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2231,6 +2271,44 @@
         <v>240</v>
       </c>
     </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="257">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,6 +1022,30 @@
   </si>
   <si>
     <t>22:30--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月3日23:47:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:40--10:10 &amp; 17:00--18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentManagerTestCase : testUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决jetty乱码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2309,6 +2333,28 @@
         <v>250</v>
       </c>
     </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="261">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,6 +1046,22 @@
   </si>
   <si>
     <t>解决jetty乱码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月4日23:41:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stu-Update（失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30--23:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,6 +2371,20 @@
         <v>254</v>
       </c>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,6 +1062,22 @@
   </si>
   <si>
     <t>22:30--23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月5日22:33:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stu-Update（成功）待解决1次问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2385,6 +2401,20 @@
         <v>260</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="271">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,6 +1078,30 @@
   </si>
   <si>
     <t>08:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月7日00:30:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:40--12:00 &amp; 23:30--00:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入Element-ui（周四）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stu-Update（成功）1次 Update 问题已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30--21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1405,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2415,6 +2439,28 @@
         <v>264</v>
       </c>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="277">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,30 @@
   </si>
   <si>
     <t>18:30--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月10日23:33:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue-element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装配置破解WebStorm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2461,6 +2485,28 @@
         <v>270</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="281">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,6 +1126,22 @@
   </si>
   <si>
     <t>安装配置破解WebStorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月11日18:26:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入简单的文本分词 JSON数据已出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--12:00 &amp; 16:00--18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1453,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2507,6 +2523,20 @@
         <v>275</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="287">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1142,6 +1142,30 @@
   </si>
   <si>
     <t>08:30--12:00 &amp; 16:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月12日21:13:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议：业务模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanlp中文分词与词性标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00--21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1469,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2537,6 +2561,28 @@
         <v>280</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="289">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,6 +1166,14 @@
   </si>
   <si>
     <t>18:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00--00:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写《nlp项目-开发计划》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2583,6 +2591,14 @@
         <v>286</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="293">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,6 +1174,22 @@
   </si>
   <si>
     <t>编写《nlp项目-开发计划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoolNLTK中文分词与词性标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月13日01:25:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:50--01:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1501,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2599,6 +2615,20 @@
         <v>287</v>
       </c>
     </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>290</v>
+      </c>
+      <c r="B101" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="297">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,6 +1190,22 @@
   </si>
   <si>
     <t>00:50--01:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月13日23:22:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分词标注完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00--17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1517,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2629,6 +2645,20 @@
         <v>292</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="301">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,7 +1193,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019年6月13日23:22:33</t>
+    <t>分词标注完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月14日11:07:17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1201,11 +1209,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分词标注完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00--17:00</t>
+    <t>分词标注完善 Ansj POS tagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化 实体 : Student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2646,17 +2662,33 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
         <v>293</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>294</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>295</v>
       </c>
-      <c r="D102" t="s">
+      <c r="B103" t="s">
         <v>296</v>
+      </c>
+      <c r="C103" t="s">
+        <v>297</v>
+      </c>
+      <c r="D103" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>298</v>
+      </c>
+      <c r="D104" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="305">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,6 +1222,22 @@
   </si>
   <si>
     <t>08:30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月16日18:02:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接（分词）问题暴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00--14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2691,6 +2707,20 @@
         <v>300</v>
       </c>
     </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="307">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,11 +1233,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前后端连接（分词）问题暴露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00--14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接-分词（成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接-分词   问题暴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00--23:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2715,10 +2723,18 @@
         <v>302</v>
       </c>
       <c r="C105" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" t="s">
         <v>303</v>
       </c>
-      <c r="D105" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
         <v>304</v>
+      </c>
+      <c r="D106" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="313">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,6 +1246,30 @@
   </si>
   <si>
     <t>22:00--23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月17日11:54:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接-多个Controller （成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1573,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2737,6 +2761,28 @@
         <v>306</v>
       </c>
     </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="317">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1270,6 +1270,22 @@
   </si>
   <si>
     <t>08:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月18日11:03:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接 多端交互（成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2783,6 +2799,20 @@
         <v>312</v>
       </c>
     </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" t="s">
+        <v>315</v>
+      </c>
+      <c r="D109" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="321">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,6 +1282,22 @@
   </si>
   <si>
     <t>前后端连接 多端交互（成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月19日11:38:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写业务说明等文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1613,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2813,6 +2829,20 @@
         <v>316</v>
       </c>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" t="s">
+        <v>319</v>
+      </c>
+      <c r="D110" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="324">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1302,6 +1302,18 @@
   </si>
   <si>
     <t>08:30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月20日12:04:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务整合（四个）成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1629,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2843,6 +2855,20 @@
         <v>320</v>
       </c>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
